--- a/excel/collective/zestawy_dla_uczniow/zestaw_021.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
   <si>
     <t>ZESTAW ZADAŃ NR 21 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Lena Kubiak</t>
-  </si>
-  <si>
-    <t>Anna Sikorska</t>
-  </si>
-  <si>
-    <t>Oliwia Górska</t>
-  </si>
-  <si>
-    <t>Anna Sadowska</t>
-  </si>
-  <si>
-    <t>Szymon Zieliński</t>
+    <t>Aleksander Woźniak</t>
+  </si>
+  <si>
+    <t>Aleksander Szymański</t>
+  </si>
+  <si>
+    <t>Hanna Sadowska</t>
+  </si>
+  <si>
+    <t>Maja Górska</t>
+  </si>
+  <si>
+    <t>Julia Sadowska</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,34 +160,31 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>3,10</t>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,20</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>4,20</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>3,00</t>
   </si>
   <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>5,20</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>5,60</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>3,50</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>13,60</t>
+    <t>4,80</t>
   </si>
   <si>
     <t>Zeszyt 60 kartek</t>
@@ -220,31 +217,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>13,63</t>
+    <t>15,56</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>13,67</t>
+    <t>30,61</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>10,73</t>
+    <t>11,55</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>28,75</t>
+    <t>28,30</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>22,79</t>
+    <t>11,13</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,16 +250,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>6,65</t>
-  </si>
-  <si>
-    <t>10,51</t>
-  </si>
-  <si>
-    <t>24,46</t>
-  </si>
-  <si>
-    <t>5,21</t>
+    <t>25,35</t>
+  </si>
+  <si>
+    <t>18,71</t>
+  </si>
+  <si>
+    <t>20,59</t>
+  </si>
+  <si>
+    <t>27,79</t>
+  </si>
+  <si>
+    <t>9,00</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -271,19 +271,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>24,83</t>
-  </si>
-  <si>
-    <t>2,70</t>
-  </si>
-  <si>
-    <t>11,76</t>
-  </si>
-  <si>
-    <t>23,65</t>
-  </si>
-  <si>
-    <t>1,52</t>
+    <t>29,72</t>
+  </si>
+  <si>
+    <t>21,71</t>
+  </si>
+  <si>
+    <t>26,06</t>
+  </si>
+  <si>
+    <t>30,30</t>
+  </si>
+  <si>
+    <t>11,42</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -337,7 +337,28 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Zuzanna</t>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Jankowski</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Hanna</t>
   </si>
   <si>
     <t>Sikorska</t>
@@ -346,43 +367,16 @@
     <t>Amelia</t>
   </si>
   <si>
-    <t>Górska</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Piekarska</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Urbaniak</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Antoni</t>
-  </si>
-  <si>
-    <t>Zieliński</t>
+    <t>Zawadzka</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Kowalczyk</t>
+  </si>
+  <si>
+    <t>Grabowski</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -418,121 +412,148 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Mikołaj Piotrowski</t>
-  </si>
-  <si>
-    <t>05.04.1998</t>
-  </si>
-  <si>
-    <t>2 587,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Sikorska</t>
-  </si>
-  <si>
-    <t>24.11.1978</t>
-  </si>
-  <si>
-    <t>4 414,00 zł</t>
+    <t>Aleksander Wójcik</t>
+  </si>
+  <si>
+    <t>24.11.1989</t>
+  </si>
+  <si>
+    <t>4 019,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Lis</t>
+  </si>
+  <si>
+    <t>18.02.1993</t>
+  </si>
+  <si>
+    <t>10 836,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Zieliński</t>
+  </si>
+  <si>
+    <t>10.02.1977</t>
+  </si>
+  <si>
+    <t>7 084,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Piekarska</t>
+  </si>
+  <si>
+    <t>09.05.2004</t>
+  </si>
+  <si>
+    <t>13 172,00 zł</t>
   </si>
   <si>
     <t>Jakub Wójcik</t>
   </si>
   <si>
-    <t>21.08.2004</t>
-  </si>
-  <si>
-    <t>6 682,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Nowak</t>
-  </si>
-  <si>
-    <t>17.07.1989</t>
-  </si>
-  <si>
-    <t>13 291,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Grabowski</t>
-  </si>
-  <si>
-    <t>02.01.2002</t>
-  </si>
-  <si>
-    <t>3 893,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Kowalczyk</t>
-  </si>
-  <si>
-    <t>12.01.2002</t>
-  </si>
-  <si>
-    <t>7 702,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Urbaniak</t>
-  </si>
-  <si>
-    <t>06.06.1991</t>
-  </si>
-  <si>
-    <t>7 165,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Kaźmierczak</t>
-  </si>
-  <si>
-    <t>12.11.1980</t>
-  </si>
-  <si>
-    <t>4 097,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Wiśniewski</t>
-  </si>
-  <si>
-    <t>05.12.2001</t>
-  </si>
-  <si>
-    <t>12 179,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Kozłowski</t>
-  </si>
-  <si>
-    <t>06.09.2003</t>
-  </si>
-  <si>
-    <t>13 029,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Wiśniewski</t>
-  </si>
-  <si>
-    <t>04.12.1986</t>
-  </si>
-  <si>
-    <t>9 874,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Bednarska</t>
-  </si>
-  <si>
-    <t>08.03.2001</t>
-  </si>
-  <si>
-    <t>7 461,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Olszewska</t>
-  </si>
-  <si>
-    <t>06.05.2005</t>
-  </si>
-  <si>
-    <t>8 354,00 zł</t>
+    <t>21.06.2003</t>
+  </si>
+  <si>
+    <t>10 065,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Urbaniak</t>
+  </si>
+  <si>
+    <t>04.08.1995</t>
+  </si>
+  <si>
+    <t>13 927,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Sadowska</t>
+  </si>
+  <si>
+    <t>03.06.1986</t>
+  </si>
+  <si>
+    <t>14 396,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Król</t>
+  </si>
+  <si>
+    <t>11.06.1990</t>
+  </si>
+  <si>
+    <t>7 724,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Malinowska</t>
+  </si>
+  <si>
+    <t>08.06.1975</t>
+  </si>
+  <si>
+    <t>6 060,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>27.09.1997</t>
+  </si>
+  <si>
+    <t>5 624,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Wojciechowski</t>
+  </si>
+  <si>
+    <t>22.01.1989</t>
+  </si>
+  <si>
+    <t>7 453,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Wiśniewski</t>
+  </si>
+  <si>
+    <t>06.02.1993</t>
+  </si>
+  <si>
+    <t>2 531,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Zieliński</t>
+  </si>
+  <si>
+    <t>08.09.1980</t>
+  </si>
+  <si>
+    <t>5 137,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Kaczmarek</t>
+  </si>
+  <si>
+    <t>11.10.1979</t>
+  </si>
+  <si>
+    <t>4 554,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Piotrowski</t>
+  </si>
+  <si>
+    <t>20.01.1981</t>
+  </si>
+  <si>
+    <t>7 743,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Czarnecka</t>
+  </si>
+  <si>
+    <t>07.09.1998</t>
+  </si>
+  <si>
+    <t>6 871,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -604,337 +625,334 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Luty</t>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 342,00 zł</t>
+  </si>
+  <si>
+    <t>1 570,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 475,00 zł</t>
+  </si>
+  <si>
+    <t>2 050,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 159,00 zł</t>
+  </si>
+  <si>
+    <t>1 484,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>935,00 zł</t>
+  </si>
+  <si>
+    <t>1 141,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 054,00 zł</t>
+  </si>
+  <si>
+    <t>1 223,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>1 448,00 zł</t>
+  </si>
+  <si>
+    <t>1 868,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>1 081,00 zł</t>
+  </si>
+  <si>
+    <t>1 200,00 zł</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 051,00 zł</t>
+  </si>
+  <si>
+    <t>1 471,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>660,00 zł</t>
+  </si>
+  <si>
+    <t>884,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>726,00 zł</t>
+  </si>
+  <si>
+    <t>893,00 zł</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>662,00 zł</t>
+  </si>
+  <si>
+    <t>874,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>980,00 zł</t>
+  </si>
+  <si>
+    <t>1 186,00 zł</t>
+  </si>
+  <si>
+    <t>1 169,00 zł</t>
+  </si>
+  <si>
+    <t>1 379,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>687,00 zł</t>
+  </si>
+  <si>
+    <t>790,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>1 404,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>778,00 zł</t>
+  </si>
+  <si>
+    <t>856,00 zł</t>
+  </si>
+  <si>
+    <t>766,00 zł</t>
+  </si>
+  <si>
+    <t>1 042,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>629,00 zł</t>
+  </si>
+  <si>
+    <t>868,00 zł</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
   </si>
   <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 233,00 zł</t>
-  </si>
-  <si>
-    <t>1 628,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
+    <t>1 198,00 zł</t>
+  </si>
+  <si>
+    <t>1 509,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>podkarpackie</t>
   </si>
   <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>685,00 zł</t>
-  </si>
-  <si>
-    <t>760,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
+    <t>512,00 zł</t>
+  </si>
+  <si>
+    <t>594,00 zł</t>
+  </si>
+  <si>
+    <t>580,00 zł</t>
+  </si>
+  <si>
+    <t>661,00 zł</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>1 228,00 zł</t>
+  </si>
+  <si>
+    <t>1 449,00 zł</t>
+  </si>
+  <si>
+    <t>686,00 zł</t>
+  </si>
+  <si>
+    <t>830,00 zł</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>972,00 zł</t>
+  </si>
+  <si>
+    <t>1 176,00 zł</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 099,00 zł</t>
+  </si>
+  <si>
+    <t>1 341,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
   </si>
   <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>1 076,00 zł</t>
-  </si>
-  <si>
-    <t>1 259,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 157,00 zł</t>
-  </si>
-  <si>
-    <t>1 527,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>976,00 zł</t>
-  </si>
-  <si>
-    <t>1 171,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>603,00 zł</t>
-  </si>
-  <si>
-    <t>718,00 zł</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 217,00 zł</t>
-  </si>
-  <si>
-    <t>1 594,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
+    <t>1 087,00 zł</t>
+  </si>
+  <si>
+    <t>1 467,00 zł</t>
+  </si>
+  <si>
+    <t>632,00 zł</t>
+  </si>
+  <si>
+    <t>758,00 zł</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 197,00 zł</t>
+  </si>
+  <si>
+    <t>1 592,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>opolskie</t>
   </si>
   <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 119,00 zł</t>
-  </si>
-  <si>
-    <t>1 410,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 107,00 zł</t>
-  </si>
-  <si>
-    <t>1 395,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>1 268,00 zł</t>
-  </si>
-  <si>
-    <t>1 686,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>684,00 zł</t>
-  </si>
-  <si>
-    <t>766,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 453,00 zł</t>
-  </si>
-  <si>
-    <t>1 947,00 zł</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>597,00 zł</t>
-  </si>
-  <si>
-    <t>800,00 zł</t>
-  </si>
-  <si>
-    <t>919,00 zł</t>
-  </si>
-  <si>
-    <t>1 222,00 zł</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>861,00 zł</t>
-  </si>
-  <si>
-    <t>1 128,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>774,00 zł</t>
-  </si>
-  <si>
-    <t>1 029,00 zł</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 137,00 zł</t>
-  </si>
-  <si>
-    <t>1 376,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>1 462,00 zł</t>
-  </si>
-  <si>
-    <t>1 652,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
+    <t>1 363,00 zł</t>
+  </si>
+  <si>
+    <t>1 499,00 zł</t>
   </si>
   <si>
     <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>891,00 zł</t>
-  </si>
-  <si>
-    <t>1 185,00 zł</t>
-  </si>
-  <si>
-    <t>1 384,00 zł</t>
-  </si>
-  <si>
-    <t>1 633,00 zł</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 145,00 zł</t>
-  </si>
-  <si>
-    <t>1 385,00 zł</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 447,00 zł</t>
-  </si>
-  <si>
-    <t>1 794,00 zł</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>704,00 zł</t>
-  </si>
-  <si>
-    <t>915,00 zł</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 426,00 zł</t>
-  </si>
-  <si>
-    <t>1 868,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>922,00 zł</t>
-  </si>
-  <si>
-    <t>1 033,00 zł</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>882,00 zł</t>
-  </si>
-  <si>
-    <t>1 032,00 zł</t>
-  </si>
-  <si>
-    <t>1 204,00 zł</t>
-  </si>
-  <si>
-    <t>1 541,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 015,00 zł</t>
-  </si>
-  <si>
-    <t>1 330,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 428,00 zł</t>
-  </si>
-  <si>
-    <t>1 785,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1491,13 +1509,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
         <v>6</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
@@ -1512,19 +1530,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3">
         <v>6</v>
       </c>
       <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
         <v>6</v>
       </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
       <c r="F18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1533,19 +1551,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
         <v>4</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3</v>
       </c>
       <c r="E19" s="3">
         <v>6</v>
       </c>
       <c r="F19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1557,16 +1575,16 @@
         <v>5</v>
       </c>
       <c r="C20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3">
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
         <v>2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1575,16 +1593,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
         <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2</v>
       </c>
       <c r="F21" s="3">
         <v>3</v>
@@ -1602,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -1623,13 +1641,13 @@
         <v>6</v>
       </c>
       <c r="D23" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1641,16 +1659,16 @@
         <v>6</v>
       </c>
       <c r="C24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3">
         <v>2</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1659,19 +1677,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
         <v>6</v>
       </c>
-      <c r="D25" s="3">
-        <v>5</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
       <c r="F25" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1683,16 +1701,16 @@
         <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="3">
         <v>4</v>
       </c>
       <c r="F26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1704,16 +1722,16 @@
         <v>6</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3">
         <v>5</v>
       </c>
       <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
         <v>2</v>
-      </c>
-      <c r="F27" s="3">
-        <v>4</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1722,19 +1740,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
         <v>2</v>
       </c>
-      <c r="C28" s="3">
-        <v>5</v>
-      </c>
       <c r="D28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
       </c>
       <c r="F28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1856,7 +1874,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1868,10 +1886,10 @@
         <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1880,13 +1898,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="D15" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1895,13 +1913,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1910,13 +1928,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D17" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1925,10 +1943,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
@@ -1940,7 +1958,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -1975,7 +1993,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2000,27 +2018,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2042,61 +2060,61 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C15" s="3">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C16" s="3">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="C17" s="3">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C18" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="C19" s="3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2104,7 +2122,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -2116,7 +2134,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2138,61 +2156,61 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="3">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="3">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2234,61 +2252,61 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="3">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C34" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C35" s="3">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C36" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C37" s="3">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2431,25 +2449,25 @@
         <v>106</v>
       </c>
       <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
         <v>4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
       </c>
       <c r="H12" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2463,25 +2481,25 @@
         <v>108</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3">
         <v>6</v>
       </c>
       <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3">
         <v>4</v>
-      </c>
-      <c r="I13" s="3">
-        <v>6</v>
-      </c>
-      <c r="J13" s="3">
-        <v>5</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2492,25 +2510,25 @@
         <v>109</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
         <v>4</v>
       </c>
       <c r="H14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J14" s="3">
         <v>6</v>
@@ -2521,28 +2539,28 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
-        <v>6</v>
-      </c>
       <c r="H15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>6</v>
@@ -2553,10 +2571,10 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
@@ -2565,19 +2583,19 @@
         <v>4</v>
       </c>
       <c r="F16" s="3">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
         <v>4</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>2</v>
       </c>
-      <c r="H16" s="3">
-        <v>5</v>
-      </c>
       <c r="I16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2585,31 +2603,31 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
         <v>4</v>
       </c>
-      <c r="H17" s="3">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>6</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2617,31 +2635,31 @@
     <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>6</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2649,38 +2667,38 @@
     <row r="19" spans="1:12">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D19" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
         <v>3</v>
-      </c>
-      <c r="G19" s="3">
-        <v>5</v>
       </c>
       <c r="H19" s="3">
         <v>5</v>
       </c>
       <c r="I19" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2696,7 +2714,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2727,10 +2745,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A27" sqref="A27:B29"/>
+      <selection activeCell="A30" sqref="A30:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2742,7 +2760,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2752,210 +2770,243 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>170</v>
       </c>
+      <c r="C24" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="A26" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>175</v>
+      <c r="B26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>175</v>
+      <c r="A29" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2992,7 +3043,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3002,75 +3053,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3078,22 +3129,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3101,22 +3152,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3124,22 +3175,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3147,22 +3198,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3170,22 +3221,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3193,19 +3244,19 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>223</v>
@@ -3216,19 +3267,19 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>228</v>
@@ -3239,22 +3290,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3262,22 +3313,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3285,22 +3336,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3308,22 +3359,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3331,22 +3382,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3354,22 +3405,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3377,22 +3428,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3400,22 +3451,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3423,22 +3474,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3446,22 +3497,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3469,22 +3520,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3492,22 +3543,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3515,22 +3566,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3538,22 +3589,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3561,22 +3612,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3584,22 +3635,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3607,19 +3658,19 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>285</v>
@@ -3630,22 +3681,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>233</v>
+        <v>297</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>199</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3653,22 +3704,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>210</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3676,22 +3727,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>203</v>
+        <v>279</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>297</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3699,22 +3750,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3722,67 +3773,67 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>210</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="13" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_021.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
   <si>
     <t>ZESTAW ZADAŃ NR 21 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 21 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,36 +148,21 @@
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,20</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>4,20</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>3,00</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>4,80</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,30</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>15,56</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>30,61</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>11,55</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>28,30</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>11,13</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>25,35</t>
-  </si>
-  <si>
-    <t>18,71</t>
-  </si>
-  <si>
-    <t>20,59</t>
-  </si>
-  <si>
-    <t>27,79</t>
-  </si>
-  <si>
-    <t>9,00</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>29,72</t>
-  </si>
-  <si>
-    <t>21,71</t>
-  </si>
-  <si>
-    <t>26,06</t>
-  </si>
-  <si>
-    <t>30,30</t>
-  </si>
-  <si>
-    <t>11,42</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -304,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -418,144 +343,96 @@
     <t>24.11.1989</t>
   </si>
   <si>
-    <t>4 019,00 zł</t>
-  </si>
-  <si>
     <t>Lena Lis</t>
   </si>
   <si>
     <t>18.02.1993</t>
   </si>
   <si>
-    <t>10 836,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Zieliński</t>
   </si>
   <si>
     <t>10.02.1977</t>
   </si>
   <si>
-    <t>7 084,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Piekarska</t>
   </si>
   <si>
     <t>09.05.2004</t>
   </si>
   <si>
-    <t>13 172,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Wójcik</t>
   </si>
   <si>
     <t>21.06.2003</t>
   </si>
   <si>
-    <t>10 065,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Urbaniak</t>
   </si>
   <si>
     <t>04.08.1995</t>
   </si>
   <si>
-    <t>13 927,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Sadowska</t>
   </si>
   <si>
     <t>03.06.1986</t>
   </si>
   <si>
-    <t>14 396,00 zł</t>
-  </si>
-  <si>
     <t>Lena Król</t>
   </si>
   <si>
     <t>11.06.1990</t>
   </si>
   <si>
-    <t>7 724,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Malinowska</t>
   </si>
   <si>
     <t>08.06.1975</t>
   </si>
   <si>
-    <t>6 060,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Kaźmierczak</t>
   </si>
   <si>
     <t>27.09.1997</t>
   </si>
   <si>
-    <t>5 624,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Wojciechowski</t>
   </si>
   <si>
     <t>22.01.1989</t>
   </si>
   <si>
-    <t>7 453,00 zł</t>
-  </si>
-  <si>
     <t>Filip Wiśniewski</t>
   </si>
   <si>
     <t>06.02.1993</t>
   </si>
   <si>
-    <t>2 531,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Zieliński</t>
   </si>
   <si>
     <t>08.09.1980</t>
   </si>
   <si>
-    <t>5 137,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Kaczmarek</t>
   </si>
   <si>
     <t>11.10.1979</t>
   </si>
   <si>
-    <t>4 554,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Piotrowski</t>
   </si>
   <si>
     <t>20.01.1981</t>
   </si>
   <si>
-    <t>7 743,00 zł</t>
-  </si>
-  <si>
     <t>Lena Czarnecka</t>
   </si>
   <si>
     <t>07.09.1998</t>
   </si>
   <si>
-    <t>6 871,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -568,9 +445,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -631,12 +505,6 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 342,00 zł</t>
-  </si>
-  <si>
-    <t>1 570,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -649,12 +517,6 @@
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 475,00 zł</t>
-  </si>
-  <si>
-    <t>2 050,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -664,12 +526,6 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 159,00 zł</t>
-  </si>
-  <si>
-    <t>1 484,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -682,12 +538,6 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>935,00 zł</t>
-  </si>
-  <si>
-    <t>1 141,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -697,12 +547,6 @@
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 054,00 zł</t>
-  </si>
-  <si>
-    <t>1 223,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -712,66 +556,30 @@
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 448,00 zł</t>
-  </si>
-  <si>
-    <t>1 868,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
-    <t>1 081,00 zł</t>
-  </si>
-  <si>
-    <t>1 200,00 zł</t>
-  </si>
-  <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 051,00 zł</t>
-  </si>
-  <si>
-    <t>1 471,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>660,00 zł</t>
-  </si>
-  <si>
-    <t>884,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
     <t>czerwiec</t>
   </si>
   <si>
-    <t>726,00 zł</t>
-  </si>
-  <si>
-    <t>893,00 zł</t>
-  </si>
-  <si>
     <t>dolnośląskie</t>
   </si>
   <si>
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>662,00 zł</t>
-  </si>
-  <si>
-    <t>874,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -781,30 +589,12 @@
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>980,00 zł</t>
-  </si>
-  <si>
-    <t>1 186,00 zł</t>
-  </si>
-  <si>
-    <t>1 169,00 zł</t>
-  </si>
-  <si>
-    <t>1 379,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>687,00 zł</t>
-  </si>
-  <si>
-    <t>790,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -817,139 +607,52 @@
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 404,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
-    <t>778,00 zł</t>
-  </si>
-  <si>
-    <t>856,00 zł</t>
-  </si>
-  <si>
-    <t>766,00 zł</t>
-  </si>
-  <si>
-    <t>1 042,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>629,00 zł</t>
-  </si>
-  <si>
-    <t>868,00 zł</t>
-  </si>
-  <si>
     <t>małopolskie</t>
   </si>
   <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 198,00 zł</t>
-  </si>
-  <si>
-    <t>1 509,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>podkarpackie</t>
   </si>
   <si>
-    <t>512,00 zł</t>
-  </si>
-  <si>
-    <t>594,00 zł</t>
-  </si>
-  <si>
-    <t>580,00 zł</t>
-  </si>
-  <si>
-    <t>661,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
-    <t>1 228,00 zł</t>
-  </si>
-  <si>
-    <t>1 449,00 zł</t>
-  </si>
-  <si>
-    <t>686,00 zł</t>
-  </si>
-  <si>
-    <t>830,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>972,00 zł</t>
-  </si>
-  <si>
-    <t>1 176,00 zł</t>
-  </si>
-  <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 099,00 zł</t>
-  </si>
-  <si>
-    <t>1 341,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
-    <t>1 087,00 zł</t>
-  </si>
-  <si>
-    <t>1 467,00 zł</t>
-  </si>
-  <si>
-    <t>632,00 zł</t>
-  </si>
-  <si>
-    <t>758,00 zł</t>
-  </si>
-  <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 197,00 zł</t>
-  </si>
-  <si>
-    <t>1 592,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>opolskie</t>
-  </si>
-  <si>
-    <t>1 363,00 zł</t>
-  </si>
-  <si>
-    <t>1 499,00 zł</t>
   </si>
   <si>
     <t>zachodniopomorskie</t>
@@ -974,7 +677,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1031,14 +736,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1049,8 +754,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1081,30 +786,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1407,7 +1113,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1482,25 +1188,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1523,7 +1229,7 @@
       <c r="F17" s="3">
         <v>5</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1544,7 +1250,7 @@
       <c r="F18" s="3">
         <v>3</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1565,7 +1271,7 @@
       <c r="F19" s="3">
         <v>5</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1586,7 +1292,7 @@
       <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1607,7 +1313,7 @@
       <c r="F21" s="3">
         <v>3</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1628,7 +1334,7 @@
       <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1649,7 +1355,7 @@
       <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1670,7 +1376,7 @@
       <c r="F24" s="3">
         <v>6</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1691,7 +1397,7 @@
       <c r="F25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1712,7 +1418,7 @@
       <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1733,7 +1439,7 @@
       <c r="F27" s="3">
         <v>2</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1754,27 +1460,17 @@
       <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1808,7 +1504,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1828,7 +1524,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1838,29 +1534,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1868,99 +1564,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.2</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.2</v>
       </c>
       <c r="D14" s="3">
         <v>9</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4.2</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4.8</v>
       </c>
       <c r="D17" s="3">
         <v>7</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5.3</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1993,7 +1689,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2018,113 +1714,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>63</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>15.56</v>
       </c>
       <c r="C15" s="3">
         <v>40</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>30.61</v>
       </c>
       <c r="C16" s="3">
         <v>18</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>11.55</v>
       </c>
       <c r="C17" s="3">
         <v>43</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>28.3</v>
       </c>
       <c r="C18" s="3">
         <v>50</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>11.13</v>
       </c>
       <c r="C19" s="3">
         <v>22</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2133,94 +1829,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>75</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>25.35</v>
       </c>
       <c r="C24" s="3">
         <v>18</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>18.71</v>
       </c>
       <c r="C25" s="3">
         <v>46</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>20.59</v>
       </c>
       <c r="C26" s="3">
         <v>46</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>27.79</v>
       </c>
       <c r="C27" s="3">
         <v>48</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>9</v>
       </c>
       <c r="C28" s="3">
         <v>29</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2229,98 +1925,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>82</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>29.72</v>
       </c>
       <c r="C33" s="3">
         <v>16</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>21.71</v>
       </c>
       <c r="C34" s="3">
         <v>27</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>26.059999999999999</v>
       </c>
       <c r="C35" s="3">
         <v>49</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>30.3</v>
       </c>
       <c r="C36" s="3">
         <v>40</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>11.42</v>
       </c>
       <c r="C37" s="3">
         <v>19</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2343,7 +2039,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2363,90 +2059,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>90</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>104</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
@@ -2469,16 +2165,16 @@
       <c r="J12" s="3">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
@@ -2501,16 +2197,16 @@
       <c r="J13" s="3">
         <v>4</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
@@ -2533,16 +2229,16 @@
       <c r="J14" s="3">
         <v>6</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
@@ -2565,16 +2261,16 @@
       <c r="J15" s="3">
         <v>6</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
@@ -2597,16 +2293,16 @@
       <c r="J16" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -2629,16 +2325,16 @@
       <c r="J17" s="3">
         <v>2</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
@@ -2661,16 +2357,16 @@
       <c r="J18" s="3">
         <v>5</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D19" s="3">
         <v>5</v>
@@ -2693,40 +2389,40 @@
       <c r="J19" s="3">
         <v>5</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2759,255 +2455,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>121</v>
+      <c r="A1" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>129</v>
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4019</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="7">
+        <v>10836</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7084</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="7">
+        <v>13172</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>114</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10065</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>116</v>
+      </c>
+      <c r="C16" s="7">
+        <v>13927</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>118</v>
+      </c>
+      <c r="C17" s="7">
+        <v>14396</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>120</v>
+      </c>
+      <c r="C18" s="7">
+        <v>7724</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>122</v>
+      </c>
+      <c r="C19" s="7">
+        <v>6060</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>159</v>
+        <v>124</v>
+      </c>
+      <c r="C20" s="7">
+        <v>5624</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>162</v>
+        <v>126</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7453</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>165</v>
+        <v>128</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2531</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>168</v>
+        <v>130</v>
+      </c>
+      <c r="C23" s="7">
+        <v>5137</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>171</v>
+        <v>132</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4554</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>174</v>
+        <v>134</v>
+      </c>
+      <c r="C25" s="7">
+        <v>7743</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>177</v>
+        <v>136</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6871</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
-        <v>178</v>
+      <c r="A29" s="17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>179</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>182</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>182</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>181</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>182</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B32" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3042,86 +2732,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>183</v>
+      <c r="A1" s="15" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>200</v>
+      <c r="A15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3129,22 +2819,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1342</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1570</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3152,22 +2842,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1475</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2050</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3175,22 +2865,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1159</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1484</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3198,22 +2888,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>221</v>
+        <v>171</v>
+      </c>
+      <c r="D19" s="7">
+        <v>935</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1141</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3221,22 +2911,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>226</v>
+        <v>174</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1054</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1223</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3244,22 +2934,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>231</v>
+        <v>177</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1448</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1868</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3267,22 +2957,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>234</v>
+        <v>174</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1081</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1200</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3290,22 +2980,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1051</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1471</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3313,22 +3003,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>241</v>
+        <v>181</v>
+      </c>
+      <c r="D24" s="7">
+        <v>660</v>
+      </c>
+      <c r="E24" s="7">
+        <v>884</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3336,22 +3026,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>245</v>
+        <v>181</v>
+      </c>
+      <c r="D25" s="7">
+        <v>726</v>
+      </c>
+      <c r="E25" s="7">
+        <v>893</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3359,22 +3049,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>249</v>
+        <v>185</v>
+      </c>
+      <c r="D26" s="7">
+        <v>662</v>
+      </c>
+      <c r="E26" s="7">
+        <v>874</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3382,22 +3072,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>254</v>
+        <v>188</v>
+      </c>
+      <c r="D27" s="7">
+        <v>980</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1186</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3405,22 +3095,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>256</v>
+        <v>160</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1169</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1379</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3428,22 +3118,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>260</v>
+        <v>190</v>
+      </c>
+      <c r="D29" s="7">
+        <v>687</v>
+      </c>
+      <c r="E29" s="7">
+        <v>790</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>261</v>
+        <v>191</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3451,22 +3141,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>265</v>
+        <v>194</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1200</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1404</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3474,22 +3164,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>268</v>
+        <v>164</v>
+      </c>
+      <c r="D31" s="7">
+        <v>778</v>
+      </c>
+      <c r="E31" s="7">
+        <v>856</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3497,22 +3187,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>270</v>
+        <v>171</v>
+      </c>
+      <c r="D32" s="7">
+        <v>766</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1042</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3520,22 +3210,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>274</v>
+        <v>197</v>
+      </c>
+      <c r="D33" s="7">
+        <v>629</v>
+      </c>
+      <c r="E33" s="7">
+        <v>868</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>275</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3543,22 +3233,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>278</v>
+        <v>199</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1198</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1509</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>280</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3566,22 +3256,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>282</v>
+        <v>194</v>
+      </c>
+      <c r="D35" s="7">
+        <v>512</v>
+      </c>
+      <c r="E35" s="7">
+        <v>594</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>261</v>
+        <v>191</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3589,22 +3279,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>284</v>
+        <v>164</v>
+      </c>
+      <c r="D36" s="7">
+        <v>580</v>
+      </c>
+      <c r="E36" s="7">
+        <v>661</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>285</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3612,22 +3302,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>287</v>
+        <v>171</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1228</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1449</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3635,22 +3325,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>289</v>
+        <v>188</v>
+      </c>
+      <c r="D38" s="7">
+        <v>686</v>
+      </c>
+      <c r="E38" s="7">
+        <v>830</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>290</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3658,22 +3348,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>293</v>
+        <v>204</v>
+      </c>
+      <c r="D39" s="7">
+        <v>972</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1176</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>285</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3681,22 +3371,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1099</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1341</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3704,22 +3394,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>300</v>
+        <v>164</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1087</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1467</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>298</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3727,22 +3417,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>302</v>
+        <v>171</v>
+      </c>
+      <c r="D42" s="7">
+        <v>632</v>
+      </c>
+      <c r="E42" s="7">
+        <v>758</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3750,22 +3440,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>305</v>
+        <v>208</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1197</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1592</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>306</v>
+        <v>209</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>307</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3773,68 +3463,58 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>309</v>
+        <v>208</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1363</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1499</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>261</v>
+        <v>191</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
-        <v>178</v>
+      <c r="A47" s="17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>311</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>182</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>312</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>182</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>313</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>182</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>314</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>182</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>315</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>182</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B52" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_021.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_021.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Aleksander Woźniak</t>
-  </si>
-  <si>
-    <t>Aleksander Szymański</t>
-  </si>
-  <si>
-    <t>Hanna Sadowska</t>
-  </si>
-  <si>
-    <t>Maja Górska</t>
-  </si>
-  <si>
-    <t>Julia Sadowska</t>
+    <t>Maja Jaworska</t>
+  </si>
+  <si>
+    <t>Emilia Zawadzka</t>
+  </si>
+  <si>
+    <t>Natalia Lis</t>
+  </si>
+  <si>
+    <t>Hanna Olszewska</t>
+  </si>
+  <si>
+    <t>Kacper Kwiatkowski</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 21 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,24 +149,24 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,49 +266,49 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Jankowski</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Woźniak</t>
   </si>
   <si>
     <t>Emilia</t>
   </si>
   <si>
-    <t>Piekarska</t>
+    <t>Malinowska</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Wiśniewski</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Górska</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Borkowska</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Kwiatkowski</t>
   </si>
   <si>
     <t>Lena</t>
   </si>
   <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Kowalski</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Sikorska</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Zawadzka</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Kowalczyk</t>
-  </si>
-  <si>
-    <t>Grabowski</t>
+    <t>Wójcik</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -337,100 +344,43 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Aleksander Wójcik</t>
-  </si>
-  <si>
-    <t>24.11.1989</t>
-  </si>
-  <si>
-    <t>Lena Lis</t>
-  </si>
-  <si>
-    <t>18.02.1993</t>
-  </si>
-  <si>
-    <t>Aleksander Zieliński</t>
-  </si>
-  <si>
-    <t>10.02.1977</t>
-  </si>
-  <si>
-    <t>Oliwia Piekarska</t>
-  </si>
-  <si>
-    <t>09.05.2004</t>
-  </si>
-  <si>
-    <t>Jakub Wójcik</t>
-  </si>
-  <si>
-    <t>21.06.2003</t>
-  </si>
-  <si>
-    <t>Emilia Urbaniak</t>
-  </si>
-  <si>
-    <t>04.08.1995</t>
-  </si>
-  <si>
-    <t>Amelia Sadowska</t>
-  </si>
-  <si>
-    <t>03.06.1986</t>
-  </si>
-  <si>
-    <t>Lena Król</t>
-  </si>
-  <si>
-    <t>11.06.1990</t>
-  </si>
-  <si>
-    <t>Zuzanna Malinowska</t>
-  </si>
-  <si>
-    <t>08.06.1975</t>
-  </si>
-  <si>
-    <t>Natalia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>27.09.1997</t>
+    <t>Zuzanna Olszewska</t>
+  </si>
+  <si>
+    <t>Antoni Grabowski</t>
+  </si>
+  <si>
+    <t>Mikołaj Wójcik</t>
+  </si>
+  <si>
+    <t>Zuzanna Maciejewska</t>
+  </si>
+  <si>
+    <t>Zuzanna Bednarska</t>
+  </si>
+  <si>
+    <t>Filip Kaczmarek</t>
+  </si>
+  <si>
+    <t>Julia Jaworska</t>
   </si>
   <si>
     <t>Aleksander Wojciechowski</t>
   </si>
   <si>
-    <t>22.01.1989</t>
-  </si>
-  <si>
-    <t>Filip Wiśniewski</t>
-  </si>
-  <si>
-    <t>06.02.1993</t>
-  </si>
-  <si>
-    <t>Antoni Zieliński</t>
-  </si>
-  <si>
-    <t>08.09.1980</t>
-  </si>
-  <si>
-    <t>Szymon Kaczmarek</t>
-  </si>
-  <si>
-    <t>11.10.1979</t>
-  </si>
-  <si>
-    <t>Kacper Piotrowski</t>
-  </si>
-  <si>
-    <t>20.01.1981</t>
-  </si>
-  <si>
-    <t>Lena Czarnecka</t>
-  </si>
-  <si>
-    <t>07.09.1998</t>
+    <t>Jan Lewandowski</t>
+  </si>
+  <si>
+    <t>Oliwia Kubiak</t>
+  </si>
+  <si>
+    <t>Lena Sadowska</t>
+  </si>
+  <si>
+    <t>Jan Kaczmarek</t>
+  </si>
+  <si>
+    <t>Wojciech Wiśniewski</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -445,7 +395,64 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Oliwia Lis</t>
+  </si>
+  <si>
+    <t>Filip Wójcik</t>
+  </si>
+  <si>
+    <t>Jakub Dąbrowski</t>
+  </si>
+  <si>
+    <t>Oliwia Jaworska</t>
+  </si>
+  <si>
+    <t>Maja Wójcik</t>
+  </si>
+  <si>
+    <t>Lena Górska</t>
+  </si>
+  <si>
+    <t>Julia Bednarska</t>
+  </si>
+  <si>
+    <t>Oliwia Sadowska</t>
+  </si>
+  <si>
+    <t>Kacper Jankowski</t>
+  </si>
+  <si>
+    <t>Maja Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Aleksander Jankowski</t>
+  </si>
+  <si>
+    <t>Wojciech Jankowski</t>
+  </si>
+  <si>
+    <t>Anna Kubiak</t>
+  </si>
+  <si>
+    <t>Antoni Kowalski</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -499,163 +506,157 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
     <t>luty</t>
   </si>
   <si>
-    <t>Konsola do gier</t>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
   </si>
   <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
     <t>lubuskie</t>
   </si>
   <si>
-    <t>styczeń</t>
-  </si>
-  <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
+    <t>czerwiec</t>
   </si>
   <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>śląskie</t>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
   </si>
   <si>
     <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -727,7 +728,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,12 +751,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -786,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -797,13 +792,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1110,7 +1104,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1215,19 +1209,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
         <v>3</v>
-      </c>
-      <c r="C17" s="3">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1236,19 +1230,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1257,19 +1251,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
         <v>6</v>
       </c>
       <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>6</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1281,13 +1275,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
@@ -1299,19 +1293,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1323,16 +1317,16 @@
         <v>5</v>
       </c>
       <c r="C22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1341,19 +1335,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
       </c>
       <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
         <v>4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1362,19 +1356,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3">
         <v>2</v>
       </c>
       <c r="E24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1386,16 +1380,16 @@
         <v>5</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1404,19 +1398,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
         <v>4</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
+        <v>6</v>
+      </c>
+      <c r="F26" s="3">
         <v>2</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>3</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1425,19 +1419,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
         <v>5</v>
       </c>
       <c r="D27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1446,16 +1440,16 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
         <v>6</v>
       </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F28" s="3">
         <v>3</v>
@@ -1471,6 +1465,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1504,7 +1504,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1524,7 +1524,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1534,29 +1534,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1564,99 +1564,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.2</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>7</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1.2</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>21.8</v>
       </c>
       <c r="D14" s="3">
         <v>9</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>4.2</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5.5</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2.4</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>4.8</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2.2</v>
       </c>
       <c r="D17" s="3">
-        <v>7</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>5.3</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.2</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1673,10 +1673,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1689,7 +1689,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1714,27 +1714,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1742,85 +1742,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>15.56</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>7.08</v>
       </c>
       <c r="C15" s="3">
-        <v>40</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>30.61</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>29.46</v>
       </c>
       <c r="C16" s="3">
-        <v>18</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>11.55</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>11.75</v>
       </c>
       <c r="C17" s="3">
-        <v>43</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>28.3</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>15.17</v>
       </c>
       <c r="C18" s="3">
-        <v>50</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>11.13</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5.14</v>
       </c>
       <c r="C19" s="3">
-        <v>22</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1829,8 +1829,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1838,85 +1838,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>25.35</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>17.73</v>
       </c>
       <c r="C24" s="3">
-        <v>18</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>18.71</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>3.64</v>
       </c>
       <c r="C25" s="3">
-        <v>46</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>20.59</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>14.42</v>
       </c>
       <c r="C26" s="3">
-        <v>46</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>27.79</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>18.69</v>
       </c>
       <c r="C27" s="3">
-        <v>48</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>9</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>11.35</v>
       </c>
       <c r="C28" s="3">
-        <v>29</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1925,8 +1925,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1934,89 +1934,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>29.72</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>17.66</v>
       </c>
       <c r="C33" s="3">
-        <v>16</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>21.71</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>27.85</v>
       </c>
       <c r="C34" s="3">
-        <v>27</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>26.059999999999999</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>13.23</v>
       </c>
       <c r="C35" s="3">
-        <v>49</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>30.3</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>28.42</v>
       </c>
       <c r="C36" s="3">
-        <v>40</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>11.42</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>8.1</v>
       </c>
       <c r="C37" s="3">
-        <v>19</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2059,111 +2067,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3</v>
-      </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2171,16 +2179,16 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
         <v>5</v>
@@ -2189,13 +2197,13 @@
         <v>6</v>
       </c>
       <c r="H13" s="3">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3">
         <v>5</v>
       </c>
-      <c r="I13" s="3">
-        <v>2</v>
-      </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2203,16 +2211,16 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>2</v>
@@ -2221,13 +2229,13 @@
         <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>6</v>
-      </c>
-      <c r="J14" s="3">
-        <v>6</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2235,13 +2243,13 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
@@ -2250,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
         <v>2</v>
@@ -2259,7 +2267,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2267,25 +2275,25 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" s="3">
         <v>4</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
@@ -2299,28 +2307,28 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
         <v>2</v>
       </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3</v>
-      </c>
-      <c r="I17" s="3">
-        <v>4</v>
       </c>
       <c r="J17" s="3">
         <v>2</v>
@@ -2331,28 +2339,28 @@
     <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
         <v>6</v>
       </c>
-      <c r="F18" s="3">
-        <v>4</v>
-      </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J18" s="3">
         <v>5</v>
@@ -2363,38 +2371,38 @@
     <row r="19" spans="1:12">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="3">
-        <v>3</v>
-      </c>
-      <c r="H19" s="3">
-        <v>5</v>
-      </c>
       <c r="I19" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2410,7 +2418,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2441,10 +2449,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A30" sqref="A30:B32"/>
+      <selection activeCell="A27" sqref="A27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2455,249 +2463,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>96</v>
+      <c r="A1" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="7">
-        <v>4019</v>
+        <v>107</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3431</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="7">
-        <v>10836</v>
+      <c r="B12" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C12" s="8">
+        <v>12978</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="7">
-        <v>7084</v>
+      <c r="B13" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C13" s="8">
+        <v>8306</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="7">
-        <v>13172</v>
+        <v>110</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C14" s="8">
+        <v>8483</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="7">
-        <v>10065</v>
+        <v>111</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C15" s="8">
+        <v>8636</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="7">
-        <v>13927</v>
+        <v>112</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5327</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="7">
-        <v>14396</v>
+        <v>113</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C17" s="8">
+        <v>14600</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="7">
-        <v>7724</v>
+        <v>114</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C18" s="8">
+        <v>13897</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="7">
-        <v>6060</v>
+        <v>115</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C19" s="8">
+        <v>3223</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="7">
-        <v>5624</v>
+        <v>116</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C20" s="8">
+        <v>14729</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="7">
-        <v>7453</v>
+        <v>117</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C21" s="8">
+        <v>7462</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="7">
-        <v>2531</v>
+        <v>118</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C22" s="8">
+        <v>9384</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="7">
-        <v>5137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="7">
-        <v>4554</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="7">
-        <v>7743</v>
+        <v>119</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C23" s="8">
+        <v>12841</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="7">
-        <v>6871</v>
-      </c>
+      <c r="A26" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="6"/>
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2714,10 +2689,203 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A10" sqref="A10:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="3">
+        <v>152</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="3">
+        <v>192</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="3">
+        <v>135</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="3">
+        <v>186</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="3">
+        <v>180</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="3">
+        <v>171</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="3">
+        <v>124</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="3">
+        <v>103</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="3">
+        <v>138</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="3">
+        <v>180</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="3">
+        <v>141</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="3">
+        <v>139</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="3">
+        <v>175</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="3">
+        <v>123</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A45" sqref="A45:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2732,86 +2900,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>141</v>
+      <c r="A1" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2819,22 +2987,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1342</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1570</v>
+        <v>162</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1098</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1449</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2842,22 +3010,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1411</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1848</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1475</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2050</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2865,16 +3033,16 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="7">
-        <v>1159</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1484</v>
+      <c r="D18" s="8">
+        <v>783</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1002</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>168</v>
@@ -2888,22 +3056,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="8">
+        <v>1028</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1295</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="7">
-        <v>935</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1141</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2911,22 +3079,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1041</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1343</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1054</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1223</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2934,22 +3102,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1330</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1569</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1448</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1868</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2957,22 +3125,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1081</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1200</v>
+        <v>167</v>
+      </c>
+      <c r="D22" s="8">
+        <v>504</v>
+      </c>
+      <c r="E22" s="8">
+        <v>575</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2980,22 +3148,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1051</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1471</v>
+        <v>166</v>
+      </c>
+      <c r="D23" s="8">
+        <v>541</v>
+      </c>
+      <c r="E23" s="8">
+        <v>682</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3003,22 +3171,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="7">
-        <v>660</v>
-      </c>
-      <c r="E24" s="7">
-        <v>884</v>
+        <v>184</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1392</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1907</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3026,22 +3194,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="7">
-        <v>726</v>
-      </c>
-      <c r="E25" s="7">
-        <v>893</v>
+        <v>187</v>
+      </c>
+      <c r="D25" s="8">
+        <v>775</v>
+      </c>
+      <c r="E25" s="8">
+        <v>860</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3049,22 +3217,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="7">
-        <v>662</v>
-      </c>
-      <c r="E26" s="7">
-        <v>874</v>
+        <v>189</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1133</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1552</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3072,22 +3240,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" s="7">
-        <v>980</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1186</v>
+        <v>190</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1407</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1604</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3095,22 +3263,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1169</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1379</v>
+        <v>187</v>
+      </c>
+      <c r="D28" s="8">
+        <v>821</v>
+      </c>
+      <c r="E28" s="8">
+        <v>936</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3118,22 +3286,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D29" s="7">
-        <v>687</v>
-      </c>
-      <c r="E29" s="7">
-        <v>790</v>
+        <v>175</v>
+      </c>
+      <c r="D29" s="8">
+        <v>927</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1279</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3141,22 +3309,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="8">
+        <v>632</v>
+      </c>
+      <c r="E30" s="8">
+        <v>878</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D30" s="7">
-        <v>1200</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1404</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="G30" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3164,22 +3332,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="7">
-        <v>778</v>
-      </c>
-      <c r="E31" s="7">
-        <v>856</v>
+        <v>195</v>
+      </c>
+      <c r="D31" s="8">
+        <v>819</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1024</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3187,22 +3355,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="7">
-        <v>766</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1042</v>
+        <v>170</v>
+      </c>
+      <c r="D32" s="8">
+        <v>891</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1025</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3210,22 +3378,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D33" s="7">
-        <v>629</v>
-      </c>
-      <c r="E33" s="7">
-        <v>868</v>
+        <v>198</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1411</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1580</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3233,22 +3401,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1198</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1509</v>
+        <v>200</v>
+      </c>
+      <c r="D34" s="8">
+        <v>680</v>
+      </c>
+      <c r="E34" s="8">
+        <v>952</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3256,22 +3424,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D35" s="7">
-        <v>512</v>
-      </c>
-      <c r="E35" s="7">
-        <v>594</v>
+        <v>202</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1134</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1531</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3279,22 +3447,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D36" s="7">
-        <v>580</v>
-      </c>
-      <c r="E36" s="7">
-        <v>661</v>
+        <v>166</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1461</v>
+      </c>
+      <c r="E36" s="8">
+        <v>2045</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3302,22 +3470,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1228</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1449</v>
+        <v>205</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1340</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1595</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3325,22 +3493,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D38" s="7">
-        <v>686</v>
-      </c>
-      <c r="E38" s="7">
-        <v>830</v>
+        <v>207</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1196</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1519</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3348,22 +3516,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D39" s="7">
-        <v>972</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1176</v>
+        <v>209</v>
+      </c>
+      <c r="D39" s="8">
+        <v>912</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1058</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3371,22 +3539,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1099</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1341</v>
+        <v>175</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1303</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1538</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3394,127 +3562,58 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1087</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1467</v>
+        <v>211</v>
+      </c>
+      <c r="D41" s="8">
+        <v>632</v>
+      </c>
+      <c r="E41" s="8">
+        <v>702</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" s="7">
-        <v>632</v>
-      </c>
-      <c r="E42" s="7">
-        <v>758</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1197</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1592</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D44" s="7">
-        <v>1363</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1499</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="A44" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>212</v>
+      </c>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="17" t="s">
-        <v>137</v>
-      </c>
+      <c r="A47" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>212</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>215</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>213</v>
-      </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>214</v>
-      </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>215</v>
-      </c>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
         <v>216</v>
       </c>
-      <c r="B52" s="6"/>
+      <c r="B49" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
